--- a/data/springcloud-course/hr-api-gateway-zull_structure.xlsx
+++ b/data/springcloud-course/hr-api-gateway-zull_structure.xlsx
@@ -171,22 +171,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>tokenStore</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>java.lang.String[]</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
     <t>ADMIN</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>java.lang.String[]</t>
-  </si>
-  <si>
-    <t>PUBLIC</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>tokenStore</t>
   </si>
   <si>
     <t>jwtSecret</t>
@@ -1149,7 +1149,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1157,13 +1157,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1191,7 +1191,7 @@
         <v>50</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
